--- a/cypress/downloads/Listado de Proyectos con Detalles - 02-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 02-04-2024.xlsx
@@ -61,7 +61,7 @@
     <x:t>Fulgenzi</x:t>
   </x:si>
   <x:si>
-    <x:t>30</x:t>
+    <x:t>32</x:t>
   </x:si>
   <x:si>
     <x:t>Completado</x:t>
@@ -112,48 +112,24 @@
     <x:t>ProjectTypeName1</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rodríguez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Riquelme</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Camilo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martínez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>Pendiente</x:t>
   </x:si>
   <x:si>
-    <x:t>Gómez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Camilo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martínez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Marcos</x:t>
   </x:si>
   <x:si>
@@ -167,9 +143,6 @@
   </x:si>
   <x:si>
     <x:t>García</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -251,8 +224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0">
-  <x:autoFilter ref="A1:H15"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0">
+  <x:autoFilter ref="A1:H11"/>
   <x:tableColumns count="8">
     <x:tableColumn id="1" name="Id de Proyecto"/>
     <x:tableColumn id="2" name="Nombre del Proyecto"/>
@@ -555,7 +528,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H15"/>
+  <x:dimension ref="A1:H11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -709,67 +682,67 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>9</x:v>
@@ -778,10 +751,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>13</x:v>
@@ -792,145 +765,47 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
